--- a/01-Excel/01-Activites/3/Activities/03-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
+++ b/01-Excel/01-Activites/3/Activities/03-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\03-Stu_LineAndBar\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/03-Stu_LineAndBar/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11C6CF-7FE8-144E-A1A7-5A6B159B58F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,20 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -489,7 +490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +518,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,7 +546,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +574,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +602,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +630,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +658,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +686,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,7 +714,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,7 +770,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -797,7 +798,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,7 +826,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -853,7 +854,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -881,7 +882,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -909,7 +910,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -937,7 +938,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -965,7 +966,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1022,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
